--- a/data/Shelves.xlsx
+++ b/data/Shelves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sathw\Desktop\ML\Agents\ai-fulfillment-aisle-optimization\ai-fulfillment-aisle-optimization\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0BD0DA-66B0-4163-8596-83D25DFCF42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9980CBA8-718E-451A-95C6-8A48729D1F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -452,7 +452,7 @@
         <v>100</v>
       </c>
       <c r="D2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>101</v>
